--- a/Cadet_Worksheet.xlsx
+++ b/Cadet_Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>CadetName</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>ASAD</t>
+  </si>
+  <si>
+    <t>hamm</t>
+  </si>
+  <si>
+    <t>hamza</t>
+  </si>
+  <si>
+    <t>shah</t>
   </si>
 </sst>
 </file>
@@ -410,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,7 +506,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>101</v>
+        <v>666</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -518,7 +527,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="1">
-        <v>8</v>
+        <v>666</v>
       </c>
       <c r="K2" s="1">
         <v>1047</v>
@@ -543,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>102</v>
+        <v>555</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -564,7 +573,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="1">
-        <v>9</v>
+        <v>555</v>
       </c>
       <c r="K3" s="1">
         <v>1047</v>
@@ -580,6 +589,144 @@
       </c>
       <c r="U3" s="1"/>
       <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>444</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>17301</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
+        <v>91</v>
+      </c>
+      <c r="H4" s="1">
+        <v>300</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1">
+        <v>444</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1047</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>6</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>333</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>17301</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1">
+        <v>91</v>
+      </c>
+      <c r="H5" s="1">
+        <v>300</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1">
+        <v>333</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1047</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>222</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17301</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1">
+        <v>91</v>
+      </c>
+      <c r="H6" s="1">
+        <v>300</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1">
+        <v>222</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1047</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="W6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
